--- a/data/Long_format_poker_results.xlsx
+++ b/data/Long_format_poker_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\appdev\Poker_power_rankings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leona\appdev\Poker_power_rankings\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA28E29D-7208-4C4C-9140-7CE0584500F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1556B580-F137-433A-8C68-305F9C4CC12E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="19200" windowHeight="11170" firstSheet="1" activeTab="1" xr2:uid="{E8939C51-BF34-4913-98CE-BA90D565017C}"/>
   </bookViews>
@@ -41,9 +41,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
-  <si>
-    <t>Player Key</t>
-  </si>
   <si>
     <t>Net</t>
   </si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>JAKHOS</t>
+  </si>
+  <si>
+    <t>Player</t>
   </si>
 </sst>
 </file>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23DEE3AF-7704-4A7C-864B-B906E127CDCC}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -910,33 +910,33 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>22366</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>15514</v>
@@ -998,7 +998,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>-4000</v>
@@ -1028,7 +1028,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-4000</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-6000</v>
@@ -1088,7 +1088,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>-12000</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>-12000</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>17309</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>15880</v>
@@ -1208,7 +1208,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3899</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>592</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>-2550</v>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
         <v>-3370</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>-4000</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>-4000</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>-12000</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>-12000</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>28200</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
         <v>-500</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>-4000</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>-4000</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>-6000</v>
@@ -1598,7 +1598,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <v>-6500</v>
@@ -1628,7 +1628,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>-8000</v>
@@ -1658,7 +1658,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
         <v>15063</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>9171</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>3704</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
         <v>-894</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
         <v>-3284</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
         <v>-4000</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>-4000</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
         <v>-4000</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
         <v>-12000</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
         <v>22794</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
         <v>15540</v>
@@ -1988,7 +1988,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
         <v>3010</v>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
         <v>-2236</v>
@@ -2048,7 +2048,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
         <v>-4000</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>-7268</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>-8000</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>-8080</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <v>-12000</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44">
         <v>13502</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>11052</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
         <v>9160</v>
@@ -2276,7 +2276,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
         <v>3446</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>-4000</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
         <v>-4000</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50">
         <v>-8000</v>
@@ -2380,7 +2380,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
         <v>-9400</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <v>-120000</v>
